--- a/Projects/STYR-N/Test_S1-S3_4.xlsx
+++ b/Projects/STYR-N/Test_S1-S3_4.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="63">
   <si>
     <t>Year</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Vinterraps</t>
+  </si>
+  <si>
+    <t>Harvest_crop4</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA110"/>
+  <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,18 +641,19 @@
     <col min="15" max="15" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" style="3" customWidth="1"/>
-    <col min="20" max="21" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="3"/>
-    <col min="23" max="23" width="11.42578125" style="3" customWidth="1"/>
-    <col min="24" max="24" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="3"/>
+    <col min="18" max="18" width="13.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="13" style="3" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="3" customWidth="1"/>
+    <col min="21" max="22" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="3"/>
+    <col min="24" max="24" width="11.42578125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -701,23 +705,26 @@
       <c r="Q1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1993</v>
       </c>
@@ -755,18 +762,23 @@
       <c r="P2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="3">
+      <c r="Q2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="3">
         <v>140</v>
       </c>
-      <c r="T2" s="6">
+      <c r="U2" s="6">
         <v>34079</v>
       </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1994</v>
       </c>
@@ -785,21 +797,35 @@
       <c r="K3" s="6">
         <v>34487</v>
       </c>
+      <c r="L3" s="6">
+        <v>36712</v>
+      </c>
+      <c r="M3" s="6">
+        <v>36753</v>
+      </c>
+      <c r="N3" s="6">
+        <v>36814</v>
+      </c>
       <c r="O3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1995</v>
       </c>
@@ -818,30 +844,44 @@
       <c r="K4" s="6">
         <v>34852</v>
       </c>
+      <c r="L4" s="6">
+        <v>37077</v>
+      </c>
+      <c r="M4" s="6">
+        <v>37118</v>
+      </c>
+      <c r="N4" s="6">
+        <v>37179</v>
+      </c>
       <c r="O4" s="6" t="s">
         <v>60</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="3">
+      <c r="Q4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="3">
         <v>140</v>
       </c>
-      <c r="T4" s="6">
+      <c r="U4" s="6">
         <v>34809</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="1"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="1"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1996</v>
       </c>
@@ -877,23 +917,24 @@
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="3">
+      <c r="R5" s="6"/>
+      <c r="S5" s="3">
         <v>60</v>
       </c>
-      <c r="T5" s="6">
+      <c r="U5" s="6">
         <v>35178</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="1"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5" s="1"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1997</v>
       </c>
@@ -929,23 +970,24 @@
       </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="3">
+      <c r="R6" s="6"/>
+      <c r="S6" s="3">
         <v>170</v>
       </c>
-      <c r="T6" s="6">
+      <c r="U6" s="6">
         <v>35550</v>
       </c>
-      <c r="U6" s="6"/>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6" s="1"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1998</v>
       </c>
@@ -979,23 +1021,24 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="3">
+      <c r="R7" s="6"/>
+      <c r="S7" s="3">
         <v>250</v>
       </c>
-      <c r="T7" s="6">
+      <c r="U7" s="6">
         <v>35906</v>
       </c>
-      <c r="U7" s="6"/>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1999</v>
       </c>
@@ -1029,19 +1072,20 @@
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="3">
+      <c r="R8" s="6"/>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="6">
+      <c r="U8" s="6">
         <v>36257</v>
       </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V8" s="6"/>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2000</v>
       </c>
@@ -1060,18 +1104,36 @@
       <c r="K9" s="6">
         <v>36668</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L9" s="6">
+        <v>36712</v>
+      </c>
+      <c r="M9" s="6">
+        <v>36753</v>
+      </c>
+      <c r="N9" s="6">
+        <v>36814</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2001</v>
       </c>
@@ -1090,23 +1152,41 @@
       <c r="K10" s="6">
         <v>37050</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7">
+      <c r="L10" s="6">
+        <v>37077</v>
+      </c>
+      <c r="M10" s="6">
+        <v>37118</v>
+      </c>
+      <c r="N10" s="6">
+        <v>37179</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S10" s="7">
         <v>140</v>
       </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="6">
+      <c r="T10" s="7"/>
+      <c r="U10" s="6">
         <v>36987</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V10" s="6"/>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2002</v>
       </c>
@@ -1139,15 +1219,18 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="O11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="6"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="9"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U11" s="9"/>
+      <c r="X11" s="1"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2003</v>
       </c>
@@ -1184,15 +1267,18 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="O12" s="11" t="s">
+        <v>50</v>
+      </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="9"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
-      <c r="W12" s="1"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U12" s="9"/>
+      <c r="X12" s="1"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2004</v>
       </c>
@@ -1234,12 +1320,13 @@
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
-      <c r="R13" s="9"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U13" s="9"/>
+      <c r="X13" s="1"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2005</v>
       </c>
@@ -1260,25 +1347,34 @@
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="11">
-        <v>36257</v>
+        <v>38449</v>
       </c>
       <c r="I14" s="11">
-        <v>36259</v>
+        <v>38451</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="11">
+        <v>38574</v>
+      </c>
+      <c r="L14" s="11">
+        <v>38640</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="O14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="Q14" s="11"/>
-      <c r="R14" s="9"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
-      <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U14" s="9"/>
+      <c r="X14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2006</v>
       </c>
@@ -1311,29 +1407,38 @@
       <c r="N15" s="13">
         <v>39001</v>
       </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="9">
-        <v>100</v>
+      <c r="O15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="S15" s="9">
         <v>100</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="9">
+        <v>100</v>
+      </c>
+      <c r="U15" s="11">
         <f>K15-30</f>
         <v>38844</v>
       </c>
-      <c r="U15" s="6">
+      <c r="V15" s="6">
         <f>K15+5</f>
         <v>38879</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>42</v>
       </c>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X15" s="1"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2007</v>
       </c>
@@ -1366,29 +1471,38 @@
       <c r="N16" s="13">
         <v>39371</v>
       </c>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="9">
-        <v>100</v>
+      <c r="O16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="S16" s="9">
         <v>100</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="9">
+        <v>100</v>
+      </c>
+      <c r="U16" s="11">
         <f>K16-30</f>
         <v>39196</v>
       </c>
-      <c r="U16" s="6">
-        <f t="shared" ref="U16:U18" si="0">K16+5</f>
+      <c r="V16" s="6">
+        <f t="shared" ref="V16:V18" si="0">K16+5</f>
         <v>39231</v>
       </c>
-      <c r="V16" s="3">
+      <c r="W16" s="3">
         <v>40</v>
       </c>
-      <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="1"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2008</v>
       </c>
@@ -1421,29 +1535,38 @@
       <c r="N17" s="13">
         <v>39735</v>
       </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="9">
-        <v>100</v>
+      <c r="O17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="S17" s="9">
         <v>100</v>
       </c>
-      <c r="T17" s="11">
+      <c r="T17" s="9">
+        <v>100</v>
+      </c>
+      <c r="U17" s="11">
         <f>K17-30</f>
         <v>39565</v>
       </c>
-      <c r="U17" s="6">
+      <c r="V17" s="6">
         <f t="shared" si="0"/>
         <v>39600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>78</v>
       </c>
-      <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="1"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2009</v>
       </c>
@@ -1471,29 +1594,38 @@
       <c r="N18" s="8">
         <v>40107</v>
       </c>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="3">
-        <v>100</v>
+      <c r="O18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="6">
         <f>K18-30</f>
         <v>39922</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V18" s="6">
         <f t="shared" si="0"/>
         <v>39957</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>130</v>
       </c>
-      <c r="W18" s="1"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="1"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>2010</v>
       </c>
@@ -1526,19 +1658,22 @@
       <c r="N19" s="12">
         <v>40358</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="10"/>
+      <c r="R19" s="12"/>
       <c r="S19" s="10"/>
-      <c r="T19" s="12"/>
+      <c r="T19" s="10"/>
       <c r="U19" s="12"/>
-      <c r="V19" s="14">
+      <c r="V19" s="12"/>
+      <c r="W19" s="14">
         <v>80</v>
       </c>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="1"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1994</v>
       </c>
@@ -1560,11 +1695,12 @@
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R20" s="6"/>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1995</v>
       </c>
@@ -1586,21 +1722,22 @@
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
-      <c r="R21" s="3">
-        <v>140</v>
-      </c>
+      <c r="R21" s="6"/>
       <c r="S21" s="3">
         <v>140</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="3">
+        <v>140</v>
+      </c>
+      <c r="U21" s="6">
         <v>34809</v>
       </c>
-      <c r="U21" s="6"/>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V21" s="6"/>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1996</v>
       </c>
@@ -1632,21 +1769,22 @@
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
-      <c r="R22" s="3">
-        <v>60</v>
-      </c>
+      <c r="R22" s="6"/>
       <c r="S22" s="3">
         <v>60</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="3">
+        <v>60</v>
+      </c>
+      <c r="U22" s="6">
         <v>35178</v>
       </c>
-      <c r="U22" s="6"/>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V22" s="6"/>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1997</v>
       </c>
@@ -1678,21 +1816,22 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
-      <c r="R23" s="3">
-        <v>170</v>
-      </c>
+      <c r="R23" s="6"/>
       <c r="S23" s="3">
         <v>170</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="3">
+        <v>170</v>
+      </c>
+      <c r="U23" s="6">
         <v>35550</v>
       </c>
-      <c r="U23" s="6"/>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V23" s="6"/>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1998</v>
       </c>
@@ -1724,21 +1863,22 @@
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
-      <c r="R24" s="3">
-        <v>250</v>
-      </c>
+      <c r="R24" s="6"/>
       <c r="S24" s="3">
         <v>250</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="3">
+        <v>250</v>
+      </c>
+      <c r="U24" s="6">
         <v>35906</v>
       </c>
-      <c r="U24" s="6"/>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V24" s="6"/>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1999</v>
       </c>
@@ -1770,21 +1910,22 @@
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
-      <c r="R25" s="3">
-        <v>100</v>
-      </c>
+      <c r="R25" s="6"/>
       <c r="S25" s="3">
         <v>100</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="3">
+        <v>100</v>
+      </c>
+      <c r="U25" s="6">
         <v>36257</v>
       </c>
-      <c r="U25" s="6"/>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V25" s="6"/>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>2000</v>
       </c>
@@ -1806,11 +1947,12 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="R26" s="6"/>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>2001</v>
       </c>
@@ -1832,21 +1974,22 @@
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
-      <c r="R27" s="7">
-        <v>140</v>
-      </c>
+      <c r="R27" s="6"/>
       <c r="S27" s="7">
         <v>140</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="7">
+        <v>140</v>
+      </c>
+      <c r="U27" s="6">
         <v>36987</v>
       </c>
-      <c r="U27" s="6"/>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="V27" s="6"/>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>2002</v>
       </c>
@@ -1863,7 +2006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>2003</v>
       </c>
@@ -1880,7 +2023,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>2004</v>
       </c>
@@ -1897,7 +2040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>2005</v>
       </c>
@@ -1914,7 +2057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>2006</v>
       </c>
@@ -1945,25 +2088,26 @@
       <c r="O32" s="13"/>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
+      <c r="R32" s="13"/>
       <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="6">
         <f>K32-30</f>
         <v>38844</v>
       </c>
-      <c r="U32" s="6">
+      <c r="V32" s="6">
         <f>K32+5</f>
         <v>38879</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2007</v>
       </c>
@@ -1994,25 +2138,26 @@
       <c r="O33" s="13"/>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
+      <c r="R33" s="13"/>
       <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="6">
         <f>K33-30</f>
         <v>39196</v>
       </c>
-      <c r="U33" s="6">
+      <c r="V33" s="6">
         <f>K33+5</f>
         <v>39231</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>2008</v>
       </c>
@@ -2044,19 +2189,20 @@
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
-      <c r="R34" s="3">
-        <v>0</v>
-      </c>
+      <c r="R34" s="6"/>
       <c r="S34" s="3">
         <v>0</v>
       </c>
-      <c r="T34" s="6"/>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
       <c r="U34" s="6"/>
-      <c r="V34" s="3">
+      <c r="V34" s="6"/>
+      <c r="W34" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>2009</v>
       </c>
@@ -2088,21 +2234,22 @@
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
-      <c r="R35" s="3">
-        <v>200</v>
-      </c>
+      <c r="R35" s="6"/>
       <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+      <c r="U35" s="6">
         <v>39923</v>
       </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="3">
+      <c r="V35" s="6"/>
+      <c r="W35" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>2010</v>
       </c>
@@ -2134,17 +2281,18 @@
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
-      <c r="R36" s="3">
-        <v>0</v>
-      </c>
+      <c r="R36" s="6"/>
       <c r="S36" s="3">
         <v>0</v>
       </c>
-      <c r="V36" s="3">
+      <c r="T36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1994</v>
       </c>
@@ -2170,17 +2318,17 @@
       <c r="K37" s="6">
         <v>34556</v>
       </c>
-      <c r="R37" s="3">
+      <c r="S37" s="3">
         <v>100</v>
       </c>
-      <c r="T37" s="6">
+      <c r="U37" s="6">
         <v>34445</v>
       </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1995</v>
       </c>
@@ -2199,14 +2347,14 @@
       <c r="K38" s="6">
         <v>34852</v>
       </c>
-      <c r="R38" s="3">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1996</v>
       </c>
@@ -2225,17 +2373,17 @@
       <c r="K39" s="6">
         <v>35222</v>
       </c>
-      <c r="R39" s="3">
+      <c r="S39" s="3">
         <v>140</v>
       </c>
-      <c r="T39" s="6">
+      <c r="U39" s="6">
         <v>35181</v>
       </c>
-      <c r="V39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1997</v>
       </c>
@@ -2261,17 +2409,17 @@
       <c r="K40" s="6">
         <v>35642</v>
       </c>
-      <c r="R40" s="3">
+      <c r="S40" s="3">
         <v>60</v>
       </c>
-      <c r="T40" s="6">
+      <c r="U40" s="6">
         <v>35534</v>
       </c>
-      <c r="V40" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1998</v>
       </c>
@@ -2297,17 +2445,17 @@
       <c r="K41" s="6">
         <v>36041</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>150</v>
       </c>
-      <c r="T41" s="6">
+      <c r="U41" s="6">
         <v>35902</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1999</v>
       </c>
@@ -2333,17 +2481,17 @@
       <c r="K42" s="6">
         <v>36460</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>250</v>
       </c>
-      <c r="T42" s="6">
+      <c r="U42" s="6">
         <v>36258</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>2000</v>
       </c>
@@ -2369,17 +2517,17 @@
       <c r="K43" s="6">
         <v>36760</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="6">
+      <c r="U43" s="6">
         <v>36619</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>2001</v>
       </c>
@@ -2398,14 +2546,14 @@
       <c r="K44" s="6">
         <v>37050</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>2002</v>
       </c>
@@ -2422,7 +2570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>2003</v>
       </c>
@@ -2439,7 +2587,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>2004</v>
       </c>
@@ -2456,7 +2604,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>2005</v>
       </c>
@@ -2473,7 +2621,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>2006</v>
       </c>
@@ -2499,17 +2647,17 @@
       <c r="K49" s="6">
         <v>38937</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="6">
+      <c r="U49" s="6">
         <v>38827</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>2006</v>
       </c>
@@ -2535,17 +2683,17 @@
       <c r="K50" s="6">
         <v>38937</v>
       </c>
-      <c r="R50" s="3">
+      <c r="S50" s="3">
         <v>100</v>
       </c>
-      <c r="T50" s="6">
+      <c r="U50" s="6">
         <v>38827</v>
       </c>
-      <c r="V50" s="3">
+      <c r="W50" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>2007</v>
       </c>
@@ -2564,17 +2712,17 @@
       <c r="K51" s="6">
         <v>39371</v>
       </c>
-      <c r="R51" s="3">
+      <c r="S51" s="3">
         <v>200</v>
       </c>
-      <c r="T51" s="6">
+      <c r="U51" s="6">
         <v>39192</v>
       </c>
-      <c r="V51" s="3">
+      <c r="W51" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>2007</v>
       </c>
@@ -2593,15 +2741,15 @@
       <c r="K52" s="6">
         <v>39371</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="6"/>
-      <c r="V52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="6"/>
+      <c r="W52" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>2008</v>
       </c>
@@ -2620,17 +2768,17 @@
       <c r="K53" s="6">
         <v>39735</v>
       </c>
-      <c r="R53" s="3">
+      <c r="S53" s="3">
         <v>200</v>
       </c>
-      <c r="T53" s="6">
+      <c r="U53" s="6">
         <v>39558</v>
       </c>
-      <c r="V53" s="3">
+      <c r="W53" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>2008</v>
       </c>
@@ -2649,15 +2797,15 @@
       <c r="K54" s="6">
         <v>39735</v>
       </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="6"/>
-      <c r="V54" s="3">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="6"/>
+      <c r="W54" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>2009</v>
       </c>
@@ -2676,17 +2824,17 @@
       <c r="K55" s="6">
         <v>40463</v>
       </c>
-      <c r="R55" s="3">
+      <c r="S55" s="3">
         <v>200</v>
       </c>
-      <c r="T55" s="6">
+      <c r="U55" s="6">
         <v>39923</v>
       </c>
-      <c r="V55" s="3">
+      <c r="W55" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>2009</v>
       </c>
@@ -2705,15 +2853,15 @@
       <c r="K56" s="6">
         <v>40463</v>
       </c>
-      <c r="R56" s="3">
-        <v>0</v>
-      </c>
-      <c r="T56" s="6"/>
-      <c r="V56" s="3">
+      <c r="S56" s="3">
+        <v>0</v>
+      </c>
+      <c r="U56" s="6"/>
+      <c r="W56" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>2010</v>
       </c>
@@ -2729,17 +2877,17 @@
       <c r="E57" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="6">
+      <c r="U57" s="6">
         <v>40288</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>2010</v>
       </c>
@@ -2755,15 +2903,15 @@
       <c r="E58" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="6"/>
-      <c r="V58" s="3">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="6"/>
+      <c r="W58" s="3">
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>1994</v>
       </c>
@@ -2789,17 +2937,17 @@
       <c r="K59" s="6">
         <v>34556</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="T59" s="6">
+      <c r="U59" s="6">
         <v>34445</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>1995</v>
       </c>
@@ -2818,14 +2966,14 @@
       <c r="K60" s="6">
         <v>34852</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>1996</v>
       </c>
@@ -2844,17 +2992,17 @@
       <c r="K61" s="6">
         <v>35222</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>140</v>
       </c>
-      <c r="T61" s="6">
+      <c r="U61" s="6">
         <v>35181</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>1997</v>
       </c>
@@ -2880,17 +3028,17 @@
       <c r="K62" s="6">
         <v>35642</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>60</v>
       </c>
-      <c r="T62" s="6">
+      <c r="U62" s="6">
         <v>35534</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>1998</v>
       </c>
@@ -2906,11 +3054,11 @@
       <c r="E63" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="V63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>1998</v>
       </c>
@@ -2936,17 +3084,17 @@
       <c r="K64" s="6">
         <v>36041</v>
       </c>
-      <c r="R64" s="3">
+      <c r="S64" s="3">
         <v>150</v>
       </c>
-      <c r="T64" s="6">
+      <c r="U64" s="6">
         <v>35902</v>
       </c>
-      <c r="V64" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>1999</v>
       </c>
@@ -2972,17 +3120,17 @@
       <c r="K65" s="6">
         <v>36460</v>
       </c>
-      <c r="R65" s="3">
+      <c r="S65" s="3">
         <v>250</v>
       </c>
-      <c r="T65" s="6">
+      <c r="U65" s="6">
         <v>36258</v>
       </c>
-      <c r="V65" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>2000</v>
       </c>
@@ -3008,17 +3156,17 @@
       <c r="K66" s="6">
         <v>36760</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="6">
+      <c r="U66" s="6">
         <v>36619</v>
       </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>2001</v>
       </c>
@@ -3037,14 +3185,14 @@
       <c r="K67" s="6">
         <v>37050</v>
       </c>
-      <c r="R67" s="3">
-        <v>0</v>
-      </c>
-      <c r="V67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S67" s="3">
+        <v>0</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>2002</v>
       </c>
@@ -3061,7 +3209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>2003</v>
       </c>
@@ -3078,7 +3226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>2004</v>
       </c>
@@ -3095,7 +3243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>2005</v>
       </c>
@@ -3112,7 +3260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>2006</v>
       </c>
@@ -3138,17 +3286,17 @@
       <c r="K72" s="6">
         <v>38937</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100</v>
       </c>
-      <c r="T72" s="6">
+      <c r="U72" s="6">
         <v>38827</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>2007</v>
       </c>
@@ -3167,17 +3315,17 @@
       <c r="K73" s="6">
         <v>39371</v>
       </c>
-      <c r="R73" s="3">
+      <c r="S73" s="3">
         <v>200</v>
       </c>
-      <c r="T73" s="6">
+      <c r="U73" s="6">
         <v>39192</v>
       </c>
-      <c r="V73" s="3">
+      <c r="W73" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>2008</v>
       </c>
@@ -3196,17 +3344,17 @@
       <c r="K74" s="6">
         <v>39735</v>
       </c>
-      <c r="R74" s="3">
+      <c r="S74" s="3">
         <v>200</v>
       </c>
-      <c r="T74" s="6">
+      <c r="U74" s="6">
         <v>39558</v>
       </c>
-      <c r="V74" s="3">
+      <c r="W74" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>2009</v>
       </c>
@@ -3232,15 +3380,15 @@
       <c r="K75" s="6">
         <v>39979</v>
       </c>
-      <c r="R75" s="3">
-        <v>0</v>
-      </c>
-      <c r="T75" s="6"/>
-      <c r="V75" s="3">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="6"/>
+      <c r="W75" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>2010</v>
       </c>
@@ -3263,17 +3411,17 @@
       <c r="K76" s="6">
         <v>40492</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="T76" s="6">
+      <c r="U76" s="6">
         <v>40288</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>1994</v>
       </c>
@@ -3299,17 +3447,17 @@
       <c r="K77" s="6">
         <v>34632</v>
       </c>
-      <c r="R77" s="3">
+      <c r="S77" s="3">
         <v>250</v>
       </c>
-      <c r="T77" s="6">
+      <c r="U77" s="6">
         <v>34444</v>
       </c>
-      <c r="V77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>1995</v>
       </c>
@@ -3335,17 +3483,17 @@
       <c r="K78" s="6">
         <v>34927</v>
       </c>
-      <c r="R78" s="3">
+      <c r="S78" s="3">
         <v>100</v>
       </c>
-      <c r="T78" s="6">
+      <c r="U78" s="6">
         <v>34815</v>
       </c>
-      <c r="V78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>1996</v>
       </c>
@@ -3364,14 +3512,14 @@
       <c r="K79" s="6">
         <v>35222</v>
       </c>
-      <c r="R79" s="3">
-        <v>0</v>
-      </c>
-      <c r="V79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S79" s="3">
+        <v>0</v>
+      </c>
+      <c r="W79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>1997</v>
       </c>
@@ -3390,17 +3538,17 @@
       <c r="K80" s="6">
         <v>35592</v>
       </c>
-      <c r="R80" s="3">
+      <c r="S80" s="3">
         <v>140</v>
       </c>
-      <c r="T80" s="6">
+      <c r="U80" s="6">
         <v>35534</v>
       </c>
-      <c r="V80" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>1998</v>
       </c>
@@ -3426,17 +3574,17 @@
       <c r="K81" s="6">
         <v>36004</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>60</v>
       </c>
-      <c r="T81" s="6">
+      <c r="U81" s="6">
         <v>35899</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>1999</v>
       </c>
@@ -3462,17 +3610,17 @@
       <c r="K82" s="6">
         <v>36404</v>
       </c>
-      <c r="R82" s="3">
+      <c r="S82" s="3">
         <v>150</v>
       </c>
-      <c r="T82" s="6">
+      <c r="U82" s="6">
         <v>36248</v>
       </c>
-      <c r="V82" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>2000</v>
       </c>
@@ -3498,17 +3646,17 @@
       <c r="K83" s="6">
         <v>36825</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>250</v>
       </c>
-      <c r="T83" s="6">
+      <c r="U83" s="6">
         <v>36620</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>2001</v>
       </c>
@@ -3534,17 +3682,17 @@
       <c r="K84" s="6">
         <v>37125</v>
       </c>
-      <c r="R84" s="3">
+      <c r="S84" s="3">
         <v>100</v>
       </c>
-      <c r="T84" s="6">
+      <c r="U84" s="6">
         <v>36987</v>
       </c>
-      <c r="V84" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>2002</v>
       </c>
@@ -3561,7 +3709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>2003</v>
       </c>
@@ -3578,7 +3726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>2004</v>
       </c>
@@ -3595,7 +3743,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>2005</v>
       </c>
@@ -3612,7 +3760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>2006</v>
       </c>
@@ -3638,15 +3786,15 @@
       <c r="K89" s="6">
         <v>38897</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="6"/>
-      <c r="V89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="6"/>
+      <c r="W89" s="3">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>2007</v>
       </c>
@@ -3672,17 +3820,17 @@
       <c r="K90" s="6">
         <v>39300</v>
       </c>
-      <c r="R90" s="3">
+      <c r="S90" s="3">
         <v>100</v>
       </c>
-      <c r="T90" s="6">
+      <c r="U90" s="6">
         <v>39192</v>
       </c>
-      <c r="V90" s="3">
+      <c r="W90" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>2008</v>
       </c>
@@ -3701,17 +3849,17 @@
       <c r="K91" s="6">
         <v>39735</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>200</v>
       </c>
-      <c r="T91" s="6">
+      <c r="U91" s="6">
         <v>39558</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>2009</v>
       </c>
@@ -3730,17 +3878,17 @@
       <c r="K92" s="6">
         <v>40463</v>
       </c>
-      <c r="R92" s="3">
+      <c r="S92" s="3">
         <v>200</v>
       </c>
-      <c r="T92" s="6">
+      <c r="U92" s="6">
         <v>39923</v>
       </c>
-      <c r="V92" s="3">
+      <c r="W92" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>2010</v>
       </c>
@@ -3756,17 +3904,17 @@
       <c r="E93" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="R93" s="3">
+      <c r="S93" s="3">
         <v>200</v>
       </c>
-      <c r="T93" s="6">
+      <c r="U93" s="6">
         <v>40288</v>
       </c>
-      <c r="V93" s="3">
+      <c r="W93" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>1994</v>
       </c>
@@ -3792,17 +3940,17 @@
       <c r="K94" s="6">
         <v>34632</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>250</v>
       </c>
-      <c r="T94" s="6">
+      <c r="U94" s="6">
         <v>34444</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>1995</v>
       </c>
@@ -3828,17 +3976,17 @@
       <c r="K95" s="6">
         <v>34927</v>
       </c>
-      <c r="R95" s="3">
+      <c r="S95" s="3">
         <v>100</v>
       </c>
-      <c r="T95" s="6">
+      <c r="U95" s="6">
         <v>34815</v>
       </c>
-      <c r="V95" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>1996</v>
       </c>
@@ -3857,14 +4005,14 @@
       <c r="K96" s="6">
         <v>35222</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>1997</v>
       </c>
@@ -3883,17 +4031,17 @@
       <c r="K97" s="6">
         <v>35592</v>
       </c>
-      <c r="R97" s="3">
+      <c r="S97" s="3">
         <v>140</v>
       </c>
-      <c r="T97" s="6">
+      <c r="U97" s="6">
         <v>35534</v>
       </c>
-      <c r="V97" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>1998</v>
       </c>
@@ -3919,17 +4067,17 @@
       <c r="K98" s="6">
         <v>36004</v>
       </c>
-      <c r="R98" s="3">
+      <c r="S98" s="3">
         <v>60</v>
       </c>
-      <c r="T98" s="6">
+      <c r="U98" s="6">
         <v>35899</v>
       </c>
-      <c r="V98" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>1999</v>
       </c>
@@ -3955,17 +4103,17 @@
       <c r="K99" s="6">
         <v>36404</v>
       </c>
-      <c r="R99" s="3">
+      <c r="S99" s="3">
         <v>150</v>
       </c>
-      <c r="T99" s="6">
+      <c r="U99" s="6">
         <v>36248</v>
       </c>
-      <c r="V99" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>2000</v>
       </c>
@@ -3991,17 +4139,17 @@
       <c r="K100" s="6">
         <v>36825</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>250</v>
       </c>
-      <c r="T100" s="6">
+      <c r="U100" s="6">
         <v>36620</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>2001</v>
       </c>
@@ -4027,17 +4175,17 @@
       <c r="K101" s="6">
         <v>37125</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="6">
+      <c r="U101" s="6">
         <v>36987</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>2002</v>
       </c>
@@ -4054,7 +4202,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>2003</v>
       </c>
@@ -4071,7 +4219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>2004</v>
       </c>
@@ -4088,7 +4236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>2005</v>
       </c>
@@ -4105,7 +4253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>2006</v>
       </c>
@@ -4131,15 +4279,15 @@
       <c r="K106" s="6">
         <v>38966</v>
       </c>
-      <c r="R106" s="3">
-        <v>0</v>
-      </c>
-      <c r="T106" s="6"/>
-      <c r="V106" s="3">
+      <c r="S106" s="3">
+        <v>0</v>
+      </c>
+      <c r="U106" s="6"/>
+      <c r="W106" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>2007</v>
       </c>
@@ -4165,17 +4313,17 @@
       <c r="K107" s="6">
         <v>39300</v>
       </c>
-      <c r="R107" s="3">
+      <c r="S107" s="3">
         <v>100</v>
       </c>
-      <c r="T107" s="6">
+      <c r="U107" s="6">
         <v>39192</v>
       </c>
-      <c r="V107" s="3">
+      <c r="W107" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>2008</v>
       </c>
@@ -4194,17 +4342,17 @@
       <c r="K108" s="6">
         <v>39735</v>
       </c>
-      <c r="R108" s="3">
+      <c r="S108" s="3">
         <v>200</v>
       </c>
-      <c r="T108" s="6">
+      <c r="U108" s="6">
         <v>39558</v>
       </c>
-      <c r="V108" s="3">
+      <c r="W108" s="3">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>2009</v>
       </c>
@@ -4223,17 +4371,17 @@
       <c r="K109" s="6">
         <v>40463</v>
       </c>
-      <c r="R109" s="3">
+      <c r="S109" s="3">
         <v>200</v>
       </c>
-      <c r="T109" s="6">
+      <c r="U109" s="6">
         <v>39923</v>
       </c>
-      <c r="V109" s="3">
+      <c r="W109" s="3">
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>2010</v>
       </c>
@@ -4259,11 +4407,11 @@
       <c r="K110" s="6">
         <v>40358</v>
       </c>
-      <c r="R110" s="3">
-        <v>0</v>
-      </c>
-      <c r="T110" s="6"/>
-      <c r="V110" s="3">
+      <c r="S110" s="3">
+        <v>0</v>
+      </c>
+      <c r="U110" s="6"/>
+      <c r="W110" s="3">
         <v>85</v>
       </c>
     </row>
